--- a/3.results/model_selection/labbe_1_test_log_quad.xlsx
+++ b/3.results/model_selection/labbe_1_test_log_quad.xlsx
@@ -817,16 +817,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -835,10 +835,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -852,16 +852,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.159</v>
+        <v>1.006</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>117.8</v>
+        <v>330.6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.53</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>449</v>
@@ -870,10 +870,10 @@
         <v>449</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="n">
@@ -897,7 +897,7 @@
         <v>206.5</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.5</v>
@@ -917,12 +917,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>-0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -936,7 +936,7 @@
         <v>173.3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0.5</v>
@@ -1017,7 +1017,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>H2&lt;453</formula>
+      <formula>H2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -1030,7 +1030,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>I2&lt;453</formula>
+      <formula>I2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1098,16 +1098,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -1116,10 +1116,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1133,16 +1133,16 @@
         <v>97</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.164</v>
+        <v>1.021</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>202.1</v>
+        <v>240.1</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.54</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>449</v>
@@ -1151,10 +1151,10 @@
         <v>449</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="n">
@@ -1178,7 +1178,7 @@
         <v>119.9</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.5</v>
@@ -1298,7 +1298,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>H2&lt;453</formula>
+      <formula>H2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -1311,7 +1311,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>I2&lt;453</formula>
+      <formula>I2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1379,16 +1379,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -1397,10 +1397,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1414,10 +1414,10 @@
         <v>106</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.164</v>
+        <v>1.04</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>304.8</v>
+        <v>332.4</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.54</v>
@@ -1426,10 +1426,10 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>442</v>
@@ -1471,15 +1471,15 @@
         <v>444</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>-0.79</v>
+        <v>-0.78</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1498,10 +1498,10 @@
         <v>155.9</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>444</v>
@@ -1553,7 +1553,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>F2&lt;446</formula>
+      <formula>F2&lt;447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
@@ -1566,7 +1566,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>G2&lt;446</formula>
+      <formula>G2&lt;447</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
@@ -1660,16 +1660,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -1678,10 +1678,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1695,16 +1695,16 @@
         <v>115</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.012</v>
+        <v>1.021</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>280.9</v>
+        <v>303.7</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.56</v>
+        <v>0.54</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>437</v>
@@ -1743,7 +1743,7 @@
         <v>0.53</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>437</v>
@@ -1752,15 +1752,15 @@
         <v>437</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>-1.15</v>
+        <v>-1.16</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1782,7 +1782,7 @@
         <v>0.54</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>437</v>
@@ -1791,10 +1791,10 @@
         <v>437</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>-0.63</v>
@@ -1860,7 +1860,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>H2&lt;437</formula>
+      <formula>H2&lt;436</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -1873,7 +1873,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>I2&lt;437</formula>
+      <formula>I2&lt;436</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1941,16 +1941,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -1959,10 +1959,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1976,28 +1976,28 @@
         <v>124</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.006</v>
+        <v>1.193</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>282.6</v>
+        <v>119.8</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="n">
@@ -2024,7 +2024,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>448</v>
@@ -2041,12 +2041,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>-0.37</v>
+        <v>-0.41</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -2060,7 +2060,7 @@
         <v>182</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0.51</v>
@@ -2072,10 +2072,10 @@
         <v>448</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>-0.21</v>
@@ -2141,7 +2141,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>H2&lt;453</formula>
+      <formula>H2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -2154,7 +2154,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>I2&lt;453</formula>
+      <formula>I2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2222,16 +2222,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -2240,10 +2240,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2257,22 +2257,22 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.138</v>
+        <v>1.032</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>56.7</v>
+        <v>62.6</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>449</v>
@@ -2302,10 +2302,10 @@
         <v>53.8</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>447</v>
@@ -2314,20 +2314,20 @@
         <v>447</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>-0.89</v>
+        <v>-0.68</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.8</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="5">
@@ -2341,10 +2341,10 @@
         <v>73.9</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>447</v>
@@ -2353,10 +2353,10 @@
         <v>447</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>-0.57</v>
@@ -2396,7 +2396,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>F2&lt;450</formula>
+      <formula>F2&lt;449</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
@@ -2409,7 +2409,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>G2&lt;450</formula>
+      <formula>G2&lt;449</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
@@ -2503,16 +2503,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -2521,10 +2521,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2538,10 +2538,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.006</v>
+        <v>1.041</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>132.8</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.45</v>
@@ -2550,16 +2550,16 @@
         <v>0.5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="n">
@@ -2583,7 +2583,7 @@
         <v>94.4</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.51</v>
@@ -2603,12 +2603,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>-1.38</v>
+        <v>-1.35</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -2677,7 +2677,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>F2&lt;443</formula>
+      <formula>F2&lt;442</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
@@ -2690,7 +2690,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>G2&lt;443</formula>
+      <formula>G2&lt;442</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H5">
@@ -2784,16 +2784,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -2802,10 +2802,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2819,10 +2819,10 @@
         <v>43</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.181</v>
+        <v>2.336</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>104.2</v>
+        <v>75.8</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.51</v>
@@ -2837,10 +2837,10 @@
         <v>447</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="n">
@@ -2867,7 +2867,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>447</v>
@@ -2884,12 +2884,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>-0.58</v>
+        <v>-0.67</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="5">
@@ -2903,10 +2903,10 @@
         <v>158.3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>447</v>
@@ -2915,10 +2915,10 @@
         <v>447</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>-0.3</v>
@@ -2984,7 +2984,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>H2&lt;453</formula>
+      <formula>H2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -2997,7 +2997,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>I2&lt;453</formula>
+      <formula>I2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3065,16 +3065,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -3083,10 +3083,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3100,13 +3100,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.331</v>
+        <v>1.618</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>131.1</v>
+        <v>81.2</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.5</v>
@@ -3165,12 +3165,12 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="n">
-        <v>-0.46</v>
+        <v>-0.52</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -3184,7 +3184,7 @@
         <v>111.3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0.5</v>
@@ -3196,10 +3196,10 @@
         <v>447</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>-0.37</v>
@@ -3265,7 +3265,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>H2&lt;453</formula>
+      <formula>H2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -3278,7 +3278,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>I2&lt;453</formula>
+      <formula>I2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3346,16 +3346,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -3364,10 +3364,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3381,22 +3381,22 @@
         <v>61</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.014</v>
+        <v>1.026</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>179.6</v>
+        <v>202.8</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>450</v>
@@ -3426,7 +3426,7 @@
         <v>273</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.5</v>
@@ -3451,7 +3451,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -3468,7 +3468,7 @@
         <v>0.53</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>448</v>
@@ -3627,16 +3627,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -3645,10 +3645,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3662,16 +3662,16 @@
         <v>70</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.07</v>
+        <v>1.412</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>172.4</v>
+        <v>121.1</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>449</v>
@@ -3686,7 +3686,7 @@
         <v>452</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -3707,7 +3707,7 @@
         <v>283.2</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>0.5</v>
@@ -3753,7 +3753,7 @@
         <v>0.56</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>448</v>
@@ -3762,10 +3762,10 @@
         <v>448</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -3827,7 +3827,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>H2&lt;453</formula>
+      <formula>H2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -3840,7 +3840,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>I2&lt;453</formula>
+      <formula>I2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3908,16 +3908,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -3926,10 +3926,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3943,13 +3943,13 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.04</v>
+        <v>1.028</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>372.1</v>
+        <v>174.4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0.5</v>
@@ -3991,7 +3991,7 @@
         <v>0.55</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>442</v>
@@ -4000,10 +4000,10 @@
         <v>442</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>0.28</v>
@@ -4031,10 +4031,10 @@
         <v>91.8</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>446</v>
@@ -4108,7 +4108,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>H2&lt;442</formula>
+      <formula>H2&lt;441</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -4121,7 +4121,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>I2&lt;442</formula>
+      <formula>I2&lt;441</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4189,16 +4189,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.005</v>
+        <v>1.027</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>223</v>
+        <v>388.9</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>447</v>
@@ -4207,10 +4207,10 @@
         <v>447</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -4224,16 +4224,16 @@
         <v>88</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1.041</v>
+        <v>1.018</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>243.7</v>
+        <v>263.1</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0.52</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>449</v>
@@ -4248,12 +4248,12 @@
         <v>450</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>-0.45</v>
+        <v>-0.37</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="n">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -4272,7 +4272,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>449</v>
@@ -4281,10 +4281,10 @@
         <v>449</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>-0.23</v>
@@ -4312,10 +4312,10 @@
         <v>168.3</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>449</v>
@@ -4324,10 +4324,10 @@
         <v>449</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -4389,7 +4389,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>H2&lt;453</formula>
+      <formula>H2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
@@ -4402,7 +4402,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>I2&lt;453</formula>
+      <formula>I2&lt;452</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
